--- a/data/tennessee_diaper_facts.xlsx
+++ b/data/tennessee_diaper_facts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\projects\nashville_diaper_connection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DD79E-7D9B-4B3A-B74C-0A0017287BCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A7CB11-3701-4997-A34F-5415ABFFFBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{4D52C39A-9E86-4B46-BC5E-67705CD94153}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>The only federal assistance program that can be used for diapers is TANF</t>
   </si>
   <si>
-    <t>Max Benefit for Family of 3 (1 Parent &amp; 2 Children)</t>
-  </si>
-  <si>
     <t>Diaper Costs Compared to Benefit - 29%</t>
   </si>
   <si>
@@ -113,6 +110,9 @@
   </si>
   <si>
     <t>US and Tennessee Diaper Facts - https://nationaldiaperbanknetwork.org/wp-content/uploads/2020/03/2019_State_Diaper_Facts_12_2019_Tennessee.pdf</t>
+  </si>
+  <si>
+    <t>Max Benefit for Family of 3 (1 Parent &amp; 2 Children) - July, 2020</t>
   </si>
 </sst>
 </file>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F2C3-1829-4E47-AABB-8C0B147BF42A}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -488,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -607,14 +607,14 @@
     </row>
     <row r="15" spans="1:3" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -668,7 +668,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>277</v>
@@ -679,12 +679,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -695,12 +695,12 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2">
         <v>1761</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="2">
         <v>1056699</v>

--- a/data/tennessee_diaper_facts.xlsx
+++ b/data/tennessee_diaper_facts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\projects\nashville_diaper_connection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A7CB11-3701-4997-A34F-5415ABFFFBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D93A2-342E-4C13-AC74-69BFECBD4704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{4D52C39A-9E86-4B46-BC5E-67705CD94153}"/>
   </bookViews>
@@ -131,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -159,6 +165,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F2C3-1829-4E47-AABB-8C0B147BF42A}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -499,7 +509,7 @@
     </row>
     <row r="2" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -547,7 +557,7 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
@@ -569,7 +579,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -629,7 +639,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3">
@@ -651,7 +661,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="3">
@@ -678,8 +688,14 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -696,6 +712,12 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>17</v>
+      </c>
+      <c r="B29" s="4">
+        <v>80</v>
+      </c>
+      <c r="C29" s="4">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">

--- a/data/tennessee_diaper_facts.xlsx
+++ b/data/tennessee_diaper_facts.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\projects\nashville_diaper_connection\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642D93A2-342E-4C13-AC74-69BFECBD4704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C85E7E-A8CE-4D71-83C9-55559FF5157F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{4D52C39A-9E86-4B46-BC5E-67705CD94153}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,6 +32,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,4 +768,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA67B4F5-24EC-49C2-81FE-9A927204857B}">
+  <dimension ref="A1:AE3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="3" max="3" width="15.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:AE3">TRANSPOSE(Sheet1!A1:'Sheet1'!C31)</f>
+        <v>US and Tennessee Diaper Facts - https://nationaldiaperbanknetwork.org/wp-content/uploads/2020/03/2019_State_Diaper_Facts_12_2019_Tennessee.pdf</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Total Population Under Age 3</v>
+      </c>
+      <c r="D1" t="str">
+        <v>% of children under age 18 are infants or toddlers</v>
+      </c>
+      <c r="E1" t="str">
+        <v>% Live in families earning less than 100% of FPL</v>
+      </c>
+      <c r="F1" t="str">
+        <v>% Live in families earning 100% to 200% of FPL</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Percentage of Births Covered by Medicaid</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Percentage of WIC Recipients that Are Infants</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Percentage of TANF Families with at Least One Child Under Age 3</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Percentage of SNAP Recipients Under Age 5</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Mothers with Infants in the Workforce</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Nationally, 57% of parents experiencing
+diaper need who rely on child care said
+they missed an average of four days of
+school or work in the past month because
+they didn't have diapers.</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Cost of Infant Care as a Percentage of Income - for all households nationwide</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Two-Parent Households</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Single-Parent Households</v>
+      </c>
+      <c r="T1">
+        <v>0</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Infants, toddlers, and mothers participate in Early Head Start</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Children Under Age 3 Receiving Federal Child Support</v>
+      </c>
+      <c r="W1">
+        <v>0</v>
+      </c>
+      <c r="X1" t="str">
+        <v>The only federal assistance program that can be used for diapers is TANF</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Max Benefit for Family of 3 (1 Parent &amp; 2 Children) - July, 2020</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Diaper Costs Compared to Benefit - 29%</v>
+      </c>
+      <c r="AA1">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Number of Diaper Banks - 5 donating 1,056,699</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>50 diapers per child per month</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Infants and toddlers helped monthly</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Diapers distributed annually</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A2" t="str">
+        <v>TN</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>241516</v>
+      </c>
+      <c r="D2">
+        <v>0.16</v>
+      </c>
+      <c r="E2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>0.23</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.51</v>
+      </c>
+      <c r="I2">
+        <v>0.26</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.65</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.12</v>
+      </c>
+      <c r="S2">
+        <v>0.4</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2265</v>
+      </c>
+      <c r="V2">
+        <v>0.41</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>277</v>
+      </c>
+      <c r="Z2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>5</v>
+      </c>
+      <c r="AC2">
+        <v>80</v>
+      </c>
+      <c r="AD2">
+        <v>1761</v>
+      </c>
+      <c r="AE2">
+        <v>1056699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A3" t="str">
+        <v>US</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>11752545</v>
+      </c>
+      <c r="D3">
+        <v>0.16</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.22</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.43</v>
+      </c>
+      <c r="I3">
+        <v>0.23</v>
+      </c>
+      <c r="J3">
+        <v>0.32</v>
+      </c>
+      <c r="K3">
+        <v>0.13</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.65</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.13</v>
+      </c>
+      <c r="S3">
+        <v>0.44</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>164739</v>
+      </c>
+      <c r="V3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>477</v>
+      </c>
+      <c r="Z3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>200</v>
+      </c>
+      <c r="AC3">
+        <v>80</v>
+      </c>
+      <c r="AD3">
+        <v>197000</v>
+      </c>
+      <c r="AE3">
+        <v>68000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>